--- a/Chapex timesheet.xlsx
+++ b/Chapex timesheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Time</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>create project developer docs</t>
+  </si>
+  <si>
+    <t>flowchart for Login and register</t>
   </si>
 </sst>
 </file>
@@ -580,8 +583,12 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
